--- a/CS Groups.xlsx
+++ b/CS Groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\work\Work\nile\Registrationhelper\NUAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E9A318-A333-4831-B8FC-355C5F70880A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700797F2-25B3-4F5B-A317-D6499D494734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="21480" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>GroupName</t>
   </si>
@@ -90,9 +90,6 @@
     <t>AI-SO-6</t>
   </si>
   <si>
-    <t>AI-SO-7</t>
-  </si>
-  <si>
     <t>AI-SR-1</t>
   </si>
   <si>
@@ -130,6 +127,60 @@
   </si>
   <si>
     <t>AIS301 CSCI305 CSCI313/ECEN428 CSCI363 CSCI410 ENGL000</t>
+  </si>
+  <si>
+    <t>AIS301 CSCI305 CSCI311/ECEN432 CSCI313/ECEN428 CSCI322 CSCI363 ENGL000</t>
+  </si>
+  <si>
+    <t>AIS301 CSCI305 CSCI311/ECEN432 CSCI313/ECEN428 CSCI363 ENGL000</t>
+  </si>
+  <si>
+    <t>AIS390 AIS490 CSCI410 CSCI461 CSCI465/ECEN433 MATH203i MATH301i</t>
+  </si>
+  <si>
+    <t>AIS390 AIS490 CSCI305 CSCI311/ECEN432 CSCI313/ECEN428 CSCI363 ENGL000 HUMA101</t>
+  </si>
+  <si>
+    <t>AIS411 AIS412 AIS495 CSCI410 CSCI461 CSCI465/ECEN433 MATH203i MATH301i</t>
+  </si>
+  <si>
+    <t>AIS411 AIS412 AIS477 AIS495 CSCI410 CSCI461</t>
+  </si>
+  <si>
+    <t>AIS411 AIS412 AIS477 AIS495 CSCI313/ECEN428 CSCI410 CSCI465/ECEN433</t>
+  </si>
+  <si>
+    <t>AIS411 AIS412 AIS477 AIS495 CSCI465/ECEN433 ENGL000</t>
+  </si>
+  <si>
+    <t>AIS411 AIS412 AIS477 CSCI313/ECEN428 CSCI363 CSCI465/ECEN433 ENGL000 MATH211</t>
+  </si>
+  <si>
+    <t>AIS411 AIS412 AIS496 CSCI313/ECEN428 CSCI322 CSCI410 CSCI461</t>
+  </si>
+  <si>
+    <t>CSCI101 CSCI102 ENGL001 MATH111i</t>
+  </si>
+  <si>
+    <t>CSCI101 CSCI102 ENGL002 HUMA101 MATH111i PHYS101C</t>
+  </si>
+  <si>
+    <t>CSCI102 CSCI205 ENGL000 HUMA101 MATH112i MATH211 PHYS101C</t>
+  </si>
+  <si>
+    <t>CSCI207/ECEN204 ECEN101C ENGL000 HUMA101 MATH112i MATH201 MATH211</t>
+  </si>
+  <si>
+    <t>CSCI207/ECEN204 CSCI212 ENGL000 HUMA101 MATH201 MATH203i</t>
+  </si>
+  <si>
+    <t>CSCI207/ECEN204 ENGL000 HUMA101 MATH112i MATH211 PHYS101C</t>
+  </si>
+  <si>
+    <t>CSCI207/ECEN204 CSCI212 ENGL000 HUMA101 MATH201 MATH211</t>
+  </si>
+  <si>
+    <t>CSCI208 CSCI212 CSCI217 CSCI311/ECEN432 CSCI322 ENGL000 HUMA101 MATH203i</t>
   </si>
 </sst>
 </file>
@@ -246,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -271,6 +322,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,7 +609,7 @@
   <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,211 +627,207 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
+      <c r="A2" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
+      <c r="A7" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
+      <c r="A8" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
+      <c r="A11" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>12</v>
+      <c r="A12" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>13</v>
+      <c r="A13" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>14</v>
+      <c r="A14" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="B24" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="B26" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="B27" s="8" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">

--- a/CS Groups.xlsx
+++ b/CS Groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\work\Work\nile\Registrationhelper\NUAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700797F2-25B3-4F5B-A317-D6499D494734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691EE180-7BD1-444B-9945-7DBAE31190F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="21480" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,360 +755,360 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="8" t="s">
         <v>51</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
     </row>
     <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
+      <c r="A87" s="4"/>
+      <c r="B87" s="5"/>
     </row>
     <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
-      <c r="B88" s="5"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="7"/>
     </row>
     <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="6"/>
-      <c r="B89" s="7"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="6"/>
     </row>
     <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="7"/>
+      <c r="A90" s="6"/>
       <c r="B90" s="6"/>
     </row>
     <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
+      <c r="B91" s="7"/>
     </row>
     <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="6"/>
+      <c r="A92" s="7"/>
       <c r="B92" s="7"/>
     </row>
     <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
+      <c r="B93" s="6"/>
     </row>
     <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
-      <c r="B94" s="6"/>
+      <c r="B94" s="7"/>
     </row>
     <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
+      <c r="B95" s="6"/>
     </row>
     <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="7"/>
+      <c r="A96" s="6"/>
       <c r="B96" s="6"/>
     </row>
     <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
     </row>
     <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
+      <c r="B99" s="6"/>
     </row>
     <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
@@ -1128,22 +1128,22 @@
     </row>
     <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
-      <c r="B102" s="6"/>
+      <c r="B102" s="7"/>
     </row>
     <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
     </row>
     <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="7"/>
+      <c r="A104" s="6"/>
       <c r="B104" s="7"/>
     </row>
     <row r="105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
-      <c r="B105" s="7"/>
+      <c r="B105" s="6"/>
     </row>
     <row r="106" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="6"/>
+      <c r="A106" s="7"/>
       <c r="B106" s="6"/>
     </row>
     <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1152,27 +1152,23 @@
     </row>
     <row r="108" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
-      <c r="B108" s="6"/>
+      <c r="B108" s="7"/>
     </row>
     <row r="109" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
     </row>
     <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
+      <c r="B110" s="7"/>
     </row>
     <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
     </row>
     <row r="112" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="6"/>
+      <c r="A112" s="7"/>
       <c r="B112" s="7"/>
-    </row>
-    <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
